--- a/Assets/_ML/MLResources/_Temp~/LevelResources/LevelResources.xlsx
+++ b/Assets/_ML/MLResources/_Temp~/LevelResources/LevelResources.xlsx
@@ -995,7 +995,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
